--- a/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="패턴2" sheetId="7" r:id="rId5"/>
     <sheet name="패턴3" sheetId="8" r:id="rId6"/>
     <sheet name="패턴4" sheetId="13" r:id="rId7"/>
-    <sheet name="그로기" sheetId="12" r:id="rId8"/>
+    <sheet name="필살기" sheetId="14" r:id="rId8"/>
     <sheet name="기본공격" sheetId="9" r:id="rId9"/>
-    <sheet name="UI 구성" sheetId="6" r:id="rId10"/>
-    <sheet name="패턴 전체 흐름" sheetId="11" r:id="rId11"/>
+    <sheet name="그로기" sheetId="12" r:id="rId10"/>
+    <sheet name="UI 구성" sheetId="6" r:id="rId11"/>
+    <sheet name="패턴 전체 흐름" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="272">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -999,18 +1000,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9. UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1 패턴1 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.2 패턴2 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.2 기획의도 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1028,6 +1017,110 @@
   </si>
   <si>
     <t xml:space="preserve"> - 전조 애니메이션 재생 전 (스크립트) 내용을 UI로 출력함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7. 필살기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 패턴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9. 그로기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2 그로기 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1 패턴1 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.2 패턴2 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 기획자가 엔징상에서 지정한 위치에서 해당 패턴 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 시 정해진 이펙트를 출력함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 위치 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 위치는 한 곳에만 결정 된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저의 위치 값에 따라 보스 공격 범위를 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 위치가 결정 되는 곳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스가 필살기 사용시 출력하는 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로컬 네임 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 필살기 규칙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2 필살기 이미지 설명 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">테이블 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 마법진 출력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,6 +1198,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1177,7 +1282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,6 +1382,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,7 +1403,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1998,6 +2112,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="3810000"/>
+          <a:ext cx="3571875" cy="3348633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3562351</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533778</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553201" y="3867150"/>
+          <a:ext cx="3515102" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4076</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>27411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="8648700"/>
+          <a:ext cx="7462151" cy="4151736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2264,7 +2515,7 @@
   <dimension ref="A2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2284,14 +2535,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2303,14 +2554,14 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -2320,25 +2571,25 @@
       <c r="C6" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2375,32 +2626,32 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
@@ -2409,50 +2660,50 @@
     </row>
     <row r="23" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
@@ -2460,37 +2711,37 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="38"/>
+      <c r="C32" s="33"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="C33" s="38"/>
+      <c r="C33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="38"/>
+      <c r="C34" s="33"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="38"/>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
     </row>
     <row r="37" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
@@ -2498,42 +2749,42 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
@@ -2541,35 +2792,35 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C46" s="38"/>
+      <c r="C46" s="33"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="38"/>
+      <c r="C47" s="33"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38" t="s">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="C48" s="38"/>
+      <c r="C48" s="33"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
     </row>
     <row r="50" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
@@ -2577,28 +2828,28 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="C52" s="38"/>
+      <c r="C52" s="33"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="38"/>
+      <c r="C53" s="33"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
     </row>
     <row r="55" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
@@ -2606,33 +2857,33 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="38"/>
+      <c r="C57" s="33"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="38"/>
+      <c r="C58" s="33"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2648,35 +2899,84 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B37"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
-        <v>39</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2687,6 +2987,46 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2753,15 +3093,15 @@
       <c r="B22" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="13" t="s">
         <v>154</v>
       </c>
@@ -2770,39 +3110,39 @@
       <c r="B23" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -2899,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -2940,11 +3280,11 @@
       <c r="D6" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -2956,9 +3296,9 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -3045,21 +3385,21 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -3172,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3234,21 +3574,21 @@
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
       <c r="N11" t="s">
         <v>71</v>
       </c>
@@ -3260,19 +3600,19 @@
       <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
       <c r="N12" t="s">
         <v>72</v>
       </c>
@@ -3281,39 +3621,39 @@
       <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
       <c r="N14" t="s">
         <v>122</v>
       </c>
@@ -3452,8 +3792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3545,7 +3885,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3615,8 +3955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B61" activeCellId="2" sqref="B15 B37 B61"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3670,12 +4010,12 @@
       <c r="B17" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="17" t="s">
         <v>138</v>
       </c>
@@ -3685,12 +4025,12 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="18" t="s">
         <v>147</v>
       </c>
@@ -3698,12 +4038,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="23"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="18" t="s">
         <v>140</v>
       </c>
@@ -3801,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B14" activeCellId="2" sqref="B2 B4 B14"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3812,12 +4152,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
@@ -3847,7 +4187,7 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
@@ -3859,15 +4199,15 @@
       <c r="B17" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="24" t="s">
         <v>187</v>
       </c>
@@ -3876,15 +4216,15 @@
       <c r="B18" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="29"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -3962,15 +4302,15 @@
       <c r="B37" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="24" t="s">
         <v>35</v>
       </c>
@@ -3982,15 +4322,15 @@
       <c r="B38" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="25" t="s">
         <v>208</v>
       </c>
@@ -4033,90 +4373,132 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:E67"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" activeCellId="2" sqref="B2 B4 B10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="40"/>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="41"/>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>170</v>
-      </c>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -538,589 +538,589 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 플레이어의 위치에 탄막을 날려 지속적으로 움직임을 유도함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프를 통해서 보스의 위치를 변경하고 플레이어에게 위협을 주기 위함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 위치를 플레이어 근처로 시작한 후 기본 공격으로 이어지게 하기 위한 패턴 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 패턴2 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 패턴1 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄막 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴은 UI 내용을 출력하지 않음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기 (토끼인형)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 무기 (탄막 몬스터) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 탄막 몬스터 위치 생성 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 동작 애니메이션을 재생한 후 공격을 진행 할 탄막 몬스터를 보스의 후방에 출력함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 진행 횟수 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막 몬스터의 출력 숫자는 ()값으로 조절하며 ()값은 공격 횟수로 사용함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 진행 애니메이션을 출력함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저의 위치에 () 값 마다 공격 범위 이펙트를 생성함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 행위를 () 값동안 반복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 위치는 기획자가 엔진상에서 직접 지정함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">용어 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 무기 (토끼 인형) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 무기 (탄막 몬스터)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - () 값 이후 유저 위치를 재 판단  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격이 진행 되면 탄막 몬스터를 1개 제거 함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - () 값 이후 패턴을 종료 시킴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3 공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트 생성 위치에 탄막 몬스터가 날아가 공격함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 출력 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 처리 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴이 종료 된 이후 유저가 공격 할 시간을 만들어주기 위해서 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 동작을 통해서 어느 정도 공격 할 수있는 시간인지 파악 할 수 있도록 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴이 종료된 이후에 해당 패턴을 출력하는 형태로 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴은 유저가 공격을 하기 위한 패턴으로 공격을 따로 구성하지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴이 종료 된 후 순서에 따라 다음 패턴을 출력한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스가 내뱉는 대사와 비슷한 형태로 구성한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7. 그로기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2 그로기 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미리 제작된 탄막을 출력하는 형태로 제작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막의 모양은 프로그래머가 지정한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 서로 다른 형태의 탄막 형태를 사용한다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 패턴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 패턴에 섞어서 사용 할 수 있도록 제작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">용어 정의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴을 호출 하기 위한 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막을 부르는 번호는 호출 번호로 표현하며 패턴 사이에 출력 할 수 있도록 제작한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출 번호 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 다음 과 같은 형태로 지정된 패턴을 불러옴 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막의 형태를 프리팹으로 만들어 불러와 사용하는 형태로 제작함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴 넘버는 1부터 시작하며 3개의 탄막으로 구성되어 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patton4_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patton4_2</t>
+  </si>
+  <si>
+    <t>Patton4_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 2페이즈 이후부터 탄막 패턴을 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 해당 패턴은 애니메이션을 출력하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 2페이즈 이후 부터 전조 동작 이후에 해당 패턴을 순서에 따라 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 순서는 앞선 룰에 따름 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄막 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 탄막이 날아가는 속도는 기획자가 제어함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - SkillSpeed 값을 통해서 제어 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실수형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅋ.ㅋ.ㅋ.ㅋ.ㅋ.. 머리 안돌아가서 막 적은 것 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.08.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴4 / 그로기 내용 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2 보스전 보스 기본 상태 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3 페이즈 변경 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 보스전 보스 기본 상태 정의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상태 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4 페이즈 변경 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4 페이즈 변경 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6 패턴 출력 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6 패턴 UI 출력 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 패턴1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 패턴1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2 패턴1 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4 공격 범위 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4 공격 범위 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2 패턴2 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 패턴2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 패턴3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 패턴3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.3 공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.4 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1 기본 공격 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그로기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">페이즈 변환 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 애니메이션 재생 전 (스크립트) 내용을 UI로 출력함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7. 필살기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 패턴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2 패턴 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9. 그로기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2 그로기 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1 패턴1 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.2 패턴2 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 기획자가 엔징상에서 지정한 위치에서 해당 패턴 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 시 정해진 이펙트를 출력함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 위치 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 공격 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 위치는 한 곳에만 결정 된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저의 위치 값에 따라 보스 공격 범위를 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 위치가 결정 되는 곳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스가 필살기 사용시 출력하는 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로컬 네임 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 필살기 규칙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2 필살기 이미지 설명 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">테이블 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 마법진 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> - 다른 패턴과 섞어 출력하여 계속 플레이어가 위치를 변경 하도록 제작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 플레이어의 위치에 탄막을 날려 지속적으로 움직임을 유도함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 점프를 통해서 보스의 위치를 변경하고 플레이어에게 위협을 주기 위함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스의 위치를 플레이어 근처로 시작한 후 기본 공격으로 이어지게 하기 위한 패턴 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 패턴2 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 패턴1 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 패턴 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄막 몬스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 패턴은 UI 내용을 출력하지 않음 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">내용 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실수형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 캐릭터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 무기 (토끼인형)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 무기 (탄막 몬스터) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다음 탄막 몬스터 위치 생성 시간 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 전조 동작 애니메이션을 재생한 후 공격을 진행 할 탄막 몬스터를 보스의 후방에 출력함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 진행 횟수 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정수형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막 몬스터의 출력 숫자는 ()값으로 조절하며 ()값은 공격 횟수로 사용함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격 진행 애니메이션을 출력함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 유저의 위치에 () 값 마다 공격 범위 이펙트를 생성함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 행위를 () 값동안 반복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 출력 위치는 기획자가 엔진상에서 직접 지정함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">용어 명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 캐릭터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 무기 (토끼 인형) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 무기 (탄막 몬스터)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - () 값 이후 유저 위치를 재 판단  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 공격이 진행 되면 탄막 몬스터를 1개 제거 함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - () 값 이후 패턴을 종료 시킴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3 공격 범위 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이펙트 생성 위치에 탄막 몬스터가 날아가 공격함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 출력 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 처리 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴이 종료 된 이후 유저가 공격 할 시간을 만들어주기 위해서 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 동작을 통해서 어느 정도 공격 할 수있는 시간인지 파악 할 수 있도록 한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴이 종료된 이후에 해당 패턴을 출력하는 형태로 구성 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 패턴은 유저가 공격을 하기 위한 패턴으로 공격을 따로 구성하지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 패턴이 종료 된 후 순서에 따라 다음 패턴을 출력한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 명 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스가 내뱉는 대사와 비슷한 형태로 구성한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7. 그로기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2 그로기 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1 기획의도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미리 제작된 탄막을 출력하는 형태로 제작한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막의 모양은 프로그래머가 지정한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 서로 다른 형태의 탄막 형태를 사용한다 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 패턴4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 다른 패턴에 섞어서 사용 할 수 있도록 제작한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2 패턴 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">용어 정의 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호출 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴을 호출 하기 위한 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막을 부르는 번호는 호출 번호로 표현하며 패턴 사이에 출력 할 수 있도록 제작한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호출 번호 예시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 다음 과 같은 형태로 지정된 패턴을 불러옴 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막의 형태를 프리팹으로 만들어 불러와 사용하는 형태로 제작함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴 넘버는 1부터 시작하며 3개의 탄막으로 구성되어 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patton4_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patton4_2</t>
-  </si>
-  <si>
-    <t>Patton4_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 2페이즈 이후부터 탄막 패턴을 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 해당 패턴은 애니메이션을 출력하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 2페이즈 이후 부터 전조 동작 이후에 해당 패턴을 순서에 따라 출력 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 출력 순서는 앞선 룰에 따름 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탄막 형태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 탄막이 날아가는 속도는 기획자가 제어함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터 명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - SkillSpeed 값을 통해서 제어 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실수형 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ㅋ.ㅋ.ㅋ.ㅋ.ㅋ.. 머리 안돌아가서 막 적은 것 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.08.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강일구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴4 / 그로기 내용 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.2 보스전 보스 기본 상태 정의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.3 페이즈 변경 흐름도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 보스전 보스 기본 상태 정의 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상태 명칭 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비고 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.4 페이즈 변경 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.4 페이즈 변경 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6 패턴 출력 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.6 패턴 UI 출력 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 패턴1 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 패턴1 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2 패턴1 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 공격 범위 형태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.4 공격 범위 형태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.3 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2 패턴2 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 패턴2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 패턴3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 패턴3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.2 패턴 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.3 공격 범위 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.4 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1 기본 공격 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">그로기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">페이즈 변환 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 전조 애니메이션 재생 전 (스크립트) 내용을 UI로 출력함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7. 필살기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 패턴4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1 기획의도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2 패턴 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">9. 그로기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2 그로기 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1 패턴1 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.2 패턴2 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 기획자가 엔징상에서 지정한 위치에서 해당 패턴 출력 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 출력 시 정해진 이펙트를 출력함 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 위치 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 공격 범위 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스의 위치는 한 곳에만 결정 된다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 유저의 위치 값에 따라 보스 공격 범위를 출력 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스 위치가 결정 되는 곳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스가 필살기 사용시 출력하는 범위 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로컬 네임 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.1 필살기 규칙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2 필살기 이미지 설명 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">테이블 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 마법진 출력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1385,6 +1385,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,12 +1408,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2535,14 +2535,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2554,42 +2554,42 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2642,7 +2642,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -2670,7 +2670,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="33"/>
       <c r="B25" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -2678,7 +2678,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
       <c r="B26" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -2686,7 +2686,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
       <c r="B27" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -2694,7 +2694,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
       <c r="B28" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
@@ -2707,34 +2707,34 @@
     </row>
     <row r="30" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="33"/>
       <c r="B32" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" s="33"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="33"/>
       <c r="B34" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" s="33"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="33"/>
       <c r="B35" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C35" s="33"/>
     </row>
@@ -2745,13 +2745,13 @@
     </row>
     <row r="37" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="33"/>
       <c r="B39" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -2759,7 +2759,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="33"/>
       <c r="B40" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
@@ -2767,7 +2767,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="33"/>
       <c r="B41" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -2775,7 +2775,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="33"/>
       <c r="B42" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="44" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2799,21 +2799,21 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="33"/>
       <c r="B46" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46" s="33"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="33"/>
       <c r="B47" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="33"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="33"/>
       <c r="B48" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" s="33"/>
     </row>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="50" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2835,14 +2835,14 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="B52" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" s="33"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="33"/>
       <c r="B53" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" s="33"/>
     </row>
@@ -2853,20 +2853,20 @@
     </row>
     <row r="55" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="33"/>
       <c r="B57" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" s="33"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="33"/>
       <c r="B58" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C58" s="33"/>
     </row>
@@ -2915,27 +2915,27 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -2966,17 +2966,17 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2998,12 +2998,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -3011,7 +3011,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
@@ -3074,15 +3074,15 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N15" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -3091,58 +3091,58 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+        <v>154</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+        <v>155</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+        <v>156</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -3278,13 +3278,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -3296,9 +3296,9 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -3374,32 +3374,32 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="26" t="s">
         <v>217</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -3460,20 +3460,20 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>26</v>
@@ -3525,12 +3525,12 @@
   <sheetData>
     <row r="2" spans="2:17" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>66</v>
@@ -3538,12 +3538,12 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N6" t="s">
         <v>67</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -3574,21 +3574,21 @@
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
       <c r="N11" t="s">
         <v>71</v>
       </c>
@@ -3600,19 +3600,19 @@
       <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
       <c r="N12" t="s">
         <v>72</v>
       </c>
@@ -3621,39 +3621,39 @@
       <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
       <c r="N14" t="s">
         <v>122</v>
       </c>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -3762,7 +3762,7 @@
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
@@ -3831,7 +3831,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -3861,7 +3861,7 @@
         <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3955,8 +3955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3967,7 +3967,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -3977,17 +3977,17 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -3995,12 +3995,12 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
@@ -4008,120 +4008,120 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="17" t="s">
+      <c r="H17" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="23"/>
-      <c r="C19" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4141,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4152,124 +4152,124 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="24" t="s">
         <v>186</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="24" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="29"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -4277,22 +4277,22 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
@@ -4300,39 +4300,39 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="24" t="s">
         <v>35</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="25" t="s">
         <v>207</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="25" t="s">
-        <v>208</v>
       </c>
       <c r="K38" s="25"/>
     </row>
@@ -4344,12 +4344,12 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
@@ -4375,8 +4375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4388,84 +4388,84 @@
   <sheetData>
     <row r="2" spans="2:3" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="35"/>
+      <c r="C14" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="D63" s="32" t="s">
         <v>266</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>267</v>
       </c>
       <c r="E63" s="32" t="s">
         <v>27</v>
@@ -4514,12 +4514,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">

--- a/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="패턴2" sheetId="7" r:id="rId5"/>
     <sheet name="패턴3" sheetId="8" r:id="rId6"/>
     <sheet name="패턴4" sheetId="13" r:id="rId7"/>
-    <sheet name="필살기" sheetId="14" r:id="rId8"/>
-    <sheet name="기본공격" sheetId="9" r:id="rId9"/>
-    <sheet name="그로기" sheetId="12" r:id="rId10"/>
-    <sheet name="UI 구성" sheetId="6" r:id="rId11"/>
-    <sheet name="패턴 전체 흐름" sheetId="11" r:id="rId12"/>
+    <sheet name="패턴5" sheetId="15" r:id="rId8"/>
+    <sheet name="필살기" sheetId="14" r:id="rId9"/>
+    <sheet name="기본공격" sheetId="9" r:id="rId10"/>
+    <sheet name="그로기" sheetId="12" r:id="rId11"/>
+    <sheet name="UI 구성" sheetId="6" r:id="rId12"/>
+    <sheet name="패턴 전체 흐름" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="285">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -988,14 +989,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8. 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1 기본 공격 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.2 기획의도 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1016,10 +1009,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">7. 필살기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 패턴4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1032,30 +1021,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">9. 그로기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1 기획의도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2 그로기 룰 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1 패턴1 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.2 패턴2 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 기획자가 엔징상에서 지정한 위치에서 해당 패턴 출력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1104,14 +1069,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7.1 필살기 규칙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2 필살기 이미지 설명 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">테이블 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1121,6 +1078,102 @@
   </si>
   <si>
     <t xml:space="preserve"> - 다른 패턴과 섞어 출력하여 계속 플레이어가 위치를 변경 하도록 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8. 필살기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1 필살기 규칙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2 필살기 이미지 설명 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1 기본 공격 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10. 그로기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1 기획의도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2 그로기 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1 패턴1 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.2 패턴2 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴의 다양성에 대한 기획 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저가 필드에서 할 수 있는 행동을 제한하고 난이도를 올리기 위한 기획방향성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스의 그래픽 적 컨셉을 살리기위한 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2 패턴5 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 패턴5_()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴5 추가 / 문서 전반 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">출력 방식 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">필요한 이펙트 / 애니 리스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패턴 5번을 출력하는 동안에는 3번과 4번 패턴을 출력하지 않는다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 대칭 출력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1128,7 +1181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,6 +1237,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1274,15 +1336,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1409,10 +1474,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="강조색3" xfId="1" builtinId="37"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2515,7 +2590,7 @@
   <dimension ref="A2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2582,14 +2657,20 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
+      <c r="B7" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2642,7 +2723,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -2893,11 +2974,56 @@
     <mergeCell ref="D7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7:I7" location="패턴5!A1" display="패턴5 추가 / 문서 전반 수정"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
@@ -2915,12 +3041,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -2935,7 +3061,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -2977,46 +3103,6 @@
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3027,6 +3113,46 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3385,21 +3511,21 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -3885,7 +4011,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3955,7 +4081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3982,7 +4108,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -4152,12 +4278,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
@@ -4187,7 +4313,7 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
@@ -4373,10 +4499,84 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="33"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E67"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4388,84 +4588,84 @@
   <sheetData>
     <row r="2" spans="2:3" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="34"/>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="35"/>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="32" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E63" s="32" t="s">
         <v>27</v>
@@ -4500,46 +4700,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
@@ -1468,12 +1468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,6 +1475,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2663,14 +2663,14 @@
       <c r="C7" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -3236,39 +3236,39 @@
       <c r="B23" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -3422,9 +3422,9 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -3726,19 +3726,19 @@
       <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
       <c r="N12" t="s">
         <v>72</v>
       </c>
@@ -3747,19 +3747,19 @@
       <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
@@ -3774,12 +3774,12 @@
       <c r="G14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
       <c r="N14" t="s">
         <v>122</v>
       </c>
@@ -4151,12 +4151,12 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="18" t="s">
         <v>146</v>
       </c>
@@ -4164,12 +4164,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="23"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="18" t="s">
         <v>139</v>
       </c>
@@ -4502,7 +4502,7 @@
   <dimension ref="B2:B58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="327">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1165,15 +1165,183 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">필요한 이펙트 / 애니 리스트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패턴 5번을 출력하는 동안에는 3번과 4번 패턴을 출력하지 않는다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 대칭 출력 </t>
+    <t xml:space="preserve"> - 패턴 5번을 출력하는 동안에는 4번 패턴을 출력하지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">용어 구분 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전조 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어를 공격하기 전 보스가 알리는 동작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 작은 범위에서 큰 범위로 퍼져나가는 느낌을 통해서 위기감을 준다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니 명칭 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">타임 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 기획자가 엔진상에서 직접 출력 위치를 조정한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전조 모션과 이펙트를 출력하여 공격 위치를 유저에게 알린다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3 순서 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 지정된 범위 내에서 순서대로 공격을 출력한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 3번을 나눠서 공격하며 공격마다 범위가 커진다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 범위 데이터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1번 공격이 10이라면 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 공격은 14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3번 공격은 18 순으로 커짐 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 범위 내에 랜덤으로 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혹시나 이어 받을 기획자를 위한 것 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격은 기본적으로 일자로 이어지도록 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저가 맞았을 경우 밀려나는 동작을 통해서 공격3개가 연속해서 들어가 무조건 회피를 사용할 수 밖에 없도록 제작하기 위함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 총 출력 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 1초 전조 애니메이션 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 위치에 이펙트 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트는 모든 위치에 출력함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 시작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 시작 시 위치 이펙트 제거 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격은 3초 동안 재생 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 앞의 공격이 출력되고 1초 뒤 다음 공격 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 시간이 0 이도면 공격 이펙트 제거 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위치 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 충돌 시 피해를 입는 공격 이펙트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 시작될 위치를 알리는 위치 이펙트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 돌려 씀 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Anim_Paton5_Attac</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 3가지의 페이즈를 통해서 다양한 연출과 보스 전투의 난이도를 조절한다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1347,7 +1515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,6 +1627,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,6 +1656,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1657,13 +1834,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38029</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>32707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2191,6 +2368,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="5200650"/>
+          <a:ext cx="4029075" cy="4029075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297077</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>143641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="14678025"/>
+          <a:ext cx="3754652" cy="5591941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -2610,14 +2880,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2629,14 +2899,14 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -2646,14 +2916,14 @@
       <c r="C6" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -2663,14 +2933,14 @@
       <c r="C7" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -3219,15 +3489,15 @@
       <c r="B22" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="13" t="s">
         <v>153</v>
       </c>
@@ -3236,39 +3506,39 @@
       <c r="B23" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -3363,10 +3633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W53"/>
+  <dimension ref="B2:W58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3406,11 +3676,11 @@
       <c r="D6" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -3422,9 +3692,9 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -3491,136 +3761,141 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C26" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D26" s="26" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="6" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="14">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="14">
         <v>1</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="14">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="14">
         <v>2</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="14">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="14">
         <v>3</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="6" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="13" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D56" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E56" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="25" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="25"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3700,21 +3975,21 @@
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="N11" t="s">
         <v>71</v>
       </c>
@@ -3726,19 +4001,19 @@
       <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
       <c r="N12" t="s">
         <v>72</v>
       </c>
@@ -3747,39 +4022,39 @@
       <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
       <c r="N14" t="s">
         <v>122</v>
       </c>
@@ -4136,12 +4411,12 @@
       <c r="B17" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="17" t="s">
         <v>137</v>
       </c>
@@ -4151,12 +4426,12 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="18" t="s">
         <v>146</v>
       </c>
@@ -4164,12 +4439,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="23"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="18" t="s">
         <v>139</v>
       </c>
@@ -4325,15 +4600,15 @@
       <c r="B17" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="24" t="s">
         <v>186</v>
       </c>
@@ -4342,15 +4617,15 @@
       <c r="B18" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="29"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -4428,15 +4703,15 @@
       <c r="B37" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="24" t="s">
         <v>35</v>
       </c>
@@ -4448,15 +4723,15 @@
       <c r="B38" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="25" t="s">
         <v>207</v>
       </c>
@@ -4499,75 +4774,311 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B58"/>
+  <dimension ref="B2:K104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="C14" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="K20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="K23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>282</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" t="s">
+        <v>294</v>
+      </c>
+      <c r="H103" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_보스 몬스터_강일구.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\MC\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1E953-9A9F-455C-967B-DB22FBE09EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="328">
   <si>
     <t>작성일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1305,18 +1306,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 공격은 3초 동안 재생 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 앞의 공격이 출력되고 1초 뒤 다음 공격 출력 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 공격 시간이 0 이도면 공격 이펙트 제거 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">공격 이펙트 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1342,13 +1335,25 @@
   </si>
   <si>
     <t xml:space="preserve"> - 3가지의 페이즈를 통해서 다양한 연출과 보스 전투의 난이도를 조절한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 각 공격의 이펙트가 3초 동안 제생 됨 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 마지막 이펙트가 재생 된 이후 패턴 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트 공격</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1630,6 +1635,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1656,9 +1664,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1696,7 +1701,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740"/>
+        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1749,7 +1760,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1787,7 +1804,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740"/>
+        <xdr:cNvPr id="4" name="그림 3" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1845,7 +1868,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1894,7 +1923,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1938,7 +1973,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1977,7 +2018,13 @@
     <xdr:ext cx="1831976" cy="336246"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2035,7 +2082,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2084,7 +2137,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2128,7 +2187,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2177,7 +2242,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740"/>
+        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2230,7 +2301,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2274,7 +2351,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2323,7 +2406,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740"/>
+        <xdr:cNvPr id="2" name="그림 1" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA4MDZfMTcx/MDAxNTY1MDg0MTUxNjQ5.rudTaips3hXyhL4dA4CnRQl6bDs2iTfns9PfVzUicj0g.O8Nbxp4dtsSLHijzwG7bwIG6VxMt7NKY1pUZr4FslVog.PNG/%EB%B3%B4%EC%8A%A4%EB%AC%B4%EA%B8%B0.png?type=w740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2381,7 +2470,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2425,7 +2520,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2474,7 +2575,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2518,7 +2625,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2562,7 +2675,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2856,7 +2975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2880,14 +2999,14 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2899,14 +3018,14 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -2916,14 +3035,14 @@
       <c r="C6" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -2933,14 +3052,14 @@
       <c r="C7" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -3245,14 +3364,14 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D7:I7" location="패턴5!A1" display="패턴5 추가 / 문서 전반 수정"/>
+    <hyperlink ref="D7:I7" location="패턴5!A1" display="패턴5 추가 / 문서 전반 수정" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3294,7 +3413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3383,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:B37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3423,7 +3542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3438,7 +3557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3489,15 +3608,15 @@
       <c r="B22" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="13" t="s">
         <v>153</v>
       </c>
@@ -3506,39 +3625,39 @@
       <c r="B23" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -3632,10 +3751,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:W58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3676,11 +3795,11 @@
       <c r="D6" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -3692,9 +3811,9 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="K8" s="2"/>
@@ -3762,7 +3881,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -3910,7 +4029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3975,21 +4094,21 @@
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
       <c r="N11" t="s">
         <v>71</v>
       </c>
@@ -4001,19 +4120,19 @@
       <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
       <c r="N12" t="s">
         <v>72</v>
       </c>
@@ -4022,39 +4141,39 @@
       <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
       <c r="N14" t="s">
         <v>122</v>
       </c>
@@ -4190,7 +4309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:E64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4353,7 +4472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:H76"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4411,12 +4530,12 @@
       <c r="B17" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="17" t="s">
         <v>137</v>
       </c>
@@ -4426,12 +4545,12 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="18" t="s">
         <v>146</v>
       </c>
@@ -4439,12 +4558,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="23"/>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="18" t="s">
         <v>139</v>
       </c>
@@ -4539,7 +4658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:K44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4600,15 +4719,15 @@
       <c r="B17" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="24" t="s">
         <v>186</v>
       </c>
@@ -4617,15 +4736,15 @@
       <c r="B18" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="29"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -4703,15 +4822,15 @@
       <c r="B37" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="24" t="s">
         <v>35</v>
       </c>
@@ -4723,15 +4842,15 @@
       <c r="B38" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="42"/>
       <c r="J38" s="25" t="s">
         <v>207</v>
       </c>
@@ -4773,11 +4892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:K104"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4832,13 +4951,13 @@
       <c r="B14" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="36" t="s">
         <v>286</v>
       </c>
@@ -4847,41 +4966,41 @@
       <c r="B15" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="37"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="37"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -4903,7 +5022,7 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="38" t="s">
         <v>306</v>
       </c>
       <c r="C20" s="15"/>
@@ -5024,17 +5143,22 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
@@ -5065,7 +5189,7 @@
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +5207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:E67"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
